--- a/data/raw/FORESTRYdata/2022/新竹_v0.xlsx
+++ b/data/raw/FORESTRYdata/2022/新竹_v0.xlsx
@@ -36905,40 +36905,40 @@
         <v>178</v>
       </c>
       <c r="D150" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E150" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F150" t="n">
         <v>2022</v>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I150" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J150" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K150" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
-        <v>289779</v>
+        <v>295380</v>
       </c>
       <c r="M150" t="n">
-        <v>2748921</v>
+        <v>2745785</v>
       </c>
       <c r="N150" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O150" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P150" t="n">
         <v>0</v>
@@ -36959,40 +36959,40 @@
         <v>178</v>
       </c>
       <c r="D151" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E151" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F151" t="n">
         <v>2022</v>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I151" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J151" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K151" t="s">
         <v>27</v>
       </c>
       <c r="L151" t="n">
-        <v>289414</v>
+        <v>295221</v>
       </c>
       <c r="M151" t="n">
-        <v>2749056</v>
+        <v>2745572</v>
       </c>
       <c r="N151" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O151" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="P151" t="n">
         <v>0</v>
@@ -37013,40 +37013,40 @@
         <v>178</v>
       </c>
       <c r="D152" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E152" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F152" t="n">
         <v>2022</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I152" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J152" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K152" t="s">
         <v>29</v>
       </c>
       <c r="L152" t="n">
-        <v>289877</v>
+        <v>295055</v>
       </c>
       <c r="M152" t="n">
-        <v>2749275</v>
+        <v>2745334</v>
       </c>
       <c r="N152" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O152" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
@@ -37067,40 +37067,40 @@
         <v>178</v>
       </c>
       <c r="D153" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E153" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F153" t="n">
         <v>2022</v>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I153" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J153" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K153" t="s">
         <v>30</v>
       </c>
       <c r="L153" t="n">
-        <v>291682</v>
+        <v>294996</v>
       </c>
       <c r="M153" t="n">
-        <v>2751004</v>
+        <v>2745054</v>
       </c>
       <c r="N153" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O153" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="P153" t="n">
         <v>0</v>
@@ -37108,7 +37108,7 @@
       <c r="Q153"/>
       <c r="R153"/>
       <c r="S153" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T153"/>
     </row>
@@ -37121,40 +37121,40 @@
         <v>178</v>
       </c>
       <c r="D154" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E154" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F154" t="n">
         <v>2022</v>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I154" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J154" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K154" t="s">
         <v>31</v>
       </c>
       <c r="L154" t="n">
-        <v>291476</v>
+        <v>294803</v>
       </c>
       <c r="M154" t="n">
-        <v>2750592</v>
+        <v>2744744</v>
       </c>
       <c r="N154" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O154" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P154" t="n">
         <v>0</v>
@@ -37175,40 +37175,40 @@
         <v>178</v>
       </c>
       <c r="D155" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E155" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F155" t="n">
         <v>2022</v>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I155" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J155" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K155" t="s">
         <v>34</v>
       </c>
       <c r="L155" t="n">
-        <v>293029</v>
+        <v>294715</v>
       </c>
       <c r="M155" t="n">
-        <v>2750310</v>
+        <v>2744488</v>
       </c>
       <c r="N155" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O155" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
@@ -37238,13 +37238,13 @@
         <v>2022</v>
       </c>
       <c r="G156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J156" t="s">
         <v>220</v>
@@ -37253,16 +37253,16 @@
         <v>24</v>
       </c>
       <c r="L156" t="n">
-        <v>289785</v>
+        <v>289779</v>
       </c>
       <c r="M156" t="n">
-        <v>2748923</v>
+        <v>2748921</v>
       </c>
       <c r="N156" t="n">
         <v>9</v>
       </c>
       <c r="O156" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="P156" t="n">
         <v>0</v>
@@ -37292,13 +37292,13 @@
         <v>2022</v>
       </c>
       <c r="G157" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H157" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J157" t="s">
         <v>220</v>
@@ -37307,16 +37307,16 @@
         <v>27</v>
       </c>
       <c r="L157" t="n">
-        <v>289418</v>
+        <v>289414</v>
       </c>
       <c r="M157" t="n">
-        <v>2749047</v>
+        <v>2749056</v>
       </c>
       <c r="N157" t="n">
         <v>9</v>
       </c>
       <c r="O157" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
@@ -37346,13 +37346,13 @@
         <v>2022</v>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H158" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J158" t="s">
         <v>220</v>
@@ -37361,16 +37361,16 @@
         <v>29</v>
       </c>
       <c r="L158" t="n">
-        <v>289878</v>
+        <v>289877</v>
       </c>
       <c r="M158" t="n">
-        <v>2749278</v>
+        <v>2749275</v>
       </c>
       <c r="N158" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O158" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>2022</v>
       </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J159" t="s">
         <v>220</v>
@@ -37415,16 +37415,16 @@
         <v>30</v>
       </c>
       <c r="L159" t="n">
-        <v>291685</v>
+        <v>291682</v>
       </c>
       <c r="M159" t="n">
         <v>2751004</v>
       </c>
       <c r="N159" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O159" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
@@ -37454,13 +37454,13 @@
         <v>2022</v>
       </c>
       <c r="G160" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J160" t="s">
         <v>220</v>
@@ -37469,16 +37469,16 @@
         <v>31</v>
       </c>
       <c r="L160" t="n">
-        <v>291481</v>
+        <v>291476</v>
       </c>
       <c r="M160" t="n">
-        <v>2750598</v>
+        <v>2750592</v>
       </c>
       <c r="N160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O160" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P160" t="n">
         <v>0</v>
@@ -37508,13 +37508,13 @@
         <v>2022</v>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H161" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J161" t="s">
         <v>220</v>
@@ -37523,16 +37523,16 @@
         <v>34</v>
       </c>
       <c r="L161" t="n">
-        <v>293020</v>
+        <v>293029</v>
       </c>
       <c r="M161" t="n">
-        <v>2750294</v>
+        <v>2750310</v>
       </c>
       <c r="N161" t="n">
         <v>10</v>
       </c>
       <c r="O161" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="P161" t="n">
         <v>0</v>
@@ -37553,40 +37553,40 @@
         <v>178</v>
       </c>
       <c r="D162" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E162" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F162" t="n">
         <v>2022</v>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H162" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I162" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J162" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K162" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
-        <v>287108</v>
+        <v>289785</v>
       </c>
       <c r="M162" t="n">
-        <v>2749761</v>
+        <v>2748923</v>
       </c>
       <c r="N162" t="n">
         <v>9</v>
       </c>
       <c r="O162" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
@@ -37594,7 +37594,7 @@
       <c r="Q162"/>
       <c r="R162"/>
       <c r="S162" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="T162"/>
     </row>
@@ -37607,40 +37607,40 @@
         <v>178</v>
       </c>
       <c r="D163" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E163" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F163" t="n">
         <v>2022</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H163" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I163" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J163" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K163" t="s">
         <v>27</v>
       </c>
       <c r="L163" t="n">
-        <v>287425</v>
+        <v>289418</v>
       </c>
       <c r="M163" t="n">
-        <v>2749499</v>
+        <v>2749047</v>
       </c>
       <c r="N163" t="n">
         <v>9</v>
       </c>
       <c r="O163" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
@@ -37648,7 +37648,7 @@
       <c r="Q163"/>
       <c r="R163"/>
       <c r="S163" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="T163"/>
     </row>
@@ -37661,40 +37661,40 @@
         <v>178</v>
       </c>
       <c r="D164" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E164" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F164" t="n">
         <v>2022</v>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H164" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I164" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J164" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L164" t="n">
-        <v>287745</v>
+        <v>289878</v>
       </c>
       <c r="M164" t="n">
-        <v>2749972</v>
+        <v>2749278</v>
       </c>
       <c r="N164" t="n">
         <v>9</v>
       </c>
       <c r="O164" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
@@ -37702,7 +37702,7 @@
       <c r="Q164"/>
       <c r="R164"/>
       <c r="S164" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="T164"/>
     </row>
@@ -37715,40 +37715,40 @@
         <v>178</v>
       </c>
       <c r="D165" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E165" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F165" t="n">
         <v>2022</v>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H165" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I165" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J165" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K165" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L165" t="n">
-        <v>287835</v>
+        <v>291685</v>
       </c>
       <c r="M165" t="n">
-        <v>2750282</v>
+        <v>2751004</v>
       </c>
       <c r="N165" t="n">
         <v>9</v>
       </c>
       <c r="O165" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P165" t="n">
         <v>0</v>
@@ -37756,7 +37756,7 @@
       <c r="Q165"/>
       <c r="R165"/>
       <c r="S165" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="T165"/>
     </row>
@@ -37769,40 +37769,40 @@
         <v>178</v>
       </c>
       <c r="D166" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E166" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F166" t="n">
         <v>2022</v>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H166" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I166" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J166" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K166" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L166" t="n">
-        <v>288003</v>
+        <v>291481</v>
       </c>
       <c r="M166" t="n">
-        <v>2750111</v>
+        <v>2750598</v>
       </c>
       <c r="N166" t="n">
         <v>9</v>
       </c>
       <c r="O166" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
       <c r="Q166"/>
       <c r="R166"/>
       <c r="S166" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="T166"/>
     </row>
@@ -37823,40 +37823,40 @@
         <v>178</v>
       </c>
       <c r="D167" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E167" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F167" t="n">
         <v>2022</v>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H167" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I167" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J167" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K167" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L167" t="n">
-        <v>288238</v>
+        <v>293020</v>
       </c>
       <c r="M167" t="n">
-        <v>2749825</v>
+        <v>2750294</v>
       </c>
       <c r="N167" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O167" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
       <c r="Q167"/>
       <c r="R167"/>
       <c r="S167" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="T167"/>
     </row>
@@ -37886,13 +37886,13 @@
         <v>2022</v>
       </c>
       <c r="G168" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H168" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I168" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J168" t="s">
         <v>223</v>
@@ -37904,13 +37904,13 @@
         <v>287108</v>
       </c>
       <c r="M168" t="n">
-        <v>2749762</v>
+        <v>2749761</v>
       </c>
       <c r="N168" t="n">
         <v>9</v>
       </c>
       <c r="O168" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P168" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>2022</v>
       </c>
       <c r="G169" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I169" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J169" t="s">
         <v>223</v>
@@ -37955,16 +37955,16 @@
         <v>27</v>
       </c>
       <c r="L169" t="n">
-        <v>287424</v>
+        <v>287425</v>
       </c>
       <c r="M169" t="n">
-        <v>2749501</v>
+        <v>2749499</v>
       </c>
       <c r="N169" t="n">
         <v>9</v>
       </c>
       <c r="O169" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P169" t="n">
         <v>0</v>
@@ -37994,13 +37994,13 @@
         <v>2022</v>
       </c>
       <c r="G170" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H170" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I170" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J170" t="s">
         <v>223</v>
@@ -38009,7 +38009,7 @@
         <v>30</v>
       </c>
       <c r="L170" t="n">
-        <v>287744</v>
+        <v>287745</v>
       </c>
       <c r="M170" t="n">
         <v>2749972</v>
@@ -38018,7 +38018,7 @@
         <v>9</v>
       </c>
       <c r="O170" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P170" t="n">
         <v>0</v>
@@ -38048,13 +38048,13 @@
         <v>2022</v>
       </c>
       <c r="G171" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I171" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J171" t="s">
         <v>223</v>
@@ -38063,7 +38063,7 @@
         <v>34</v>
       </c>
       <c r="L171" t="n">
-        <v>287833</v>
+        <v>287835</v>
       </c>
       <c r="M171" t="n">
         <v>2750282</v>
@@ -38072,7 +38072,7 @@
         <v>9</v>
       </c>
       <c r="O171" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="P171" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>2022</v>
       </c>
       <c r="G172" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H172" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I172" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J172" t="s">
         <v>223</v>
@@ -38117,16 +38117,16 @@
         <v>39</v>
       </c>
       <c r="L172" t="n">
-        <v>288002</v>
+        <v>288003</v>
       </c>
       <c r="M172" t="n">
-        <v>2750112</v>
+        <v>2750111</v>
       </c>
       <c r="N172" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O172" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="P172" t="n">
         <v>0</v>
@@ -38156,13 +38156,13 @@
         <v>2022</v>
       </c>
       <c r="G173" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H173" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I173" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J173" t="s">
         <v>223</v>
@@ -38171,16 +38171,16 @@
         <v>58</v>
       </c>
       <c r="L173" t="n">
-        <v>288236</v>
+        <v>288238</v>
       </c>
       <c r="M173" t="n">
         <v>2749825</v>
       </c>
       <c r="N173" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O173" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="P173" t="n">
         <v>0</v>
@@ -38201,40 +38201,40 @@
         <v>178</v>
       </c>
       <c r="D174" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E174" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F174" t="n">
         <v>2022</v>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H174" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I174" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J174" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K174" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
-        <v>301235</v>
+        <v>287108</v>
       </c>
       <c r="M174" t="n">
-        <v>2740565</v>
+        <v>2749762</v>
       </c>
       <c r="N174" t="n">
         <v>9</v>
       </c>
       <c r="O174" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P174" t="n">
         <v>0</v>
@@ -38242,7 +38242,7 @@
       <c r="Q174"/>
       <c r="R174"/>
       <c r="S174" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="T174"/>
     </row>
@@ -38255,40 +38255,40 @@
         <v>178</v>
       </c>
       <c r="D175" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E175" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F175" t="n">
         <v>2022</v>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H175" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I175" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J175" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K175" t="s">
         <v>27</v>
       </c>
       <c r="L175" t="n">
-        <v>301248</v>
+        <v>287424</v>
       </c>
       <c r="M175" t="n">
-        <v>2740363</v>
+        <v>2749501</v>
       </c>
       <c r="N175" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O175" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="P175" t="n">
         <v>0</v>
@@ -38296,7 +38296,7 @@
       <c r="Q175"/>
       <c r="R175"/>
       <c r="S175" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="T175"/>
     </row>
@@ -38309,52 +38309,48 @@
         <v>178</v>
       </c>
       <c r="D176" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E176" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F176" t="n">
         <v>2022</v>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H176" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I176" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J176" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L176" t="n">
-        <v>301184</v>
+        <v>287744</v>
       </c>
       <c r="M176" t="n">
-        <v>2740121</v>
+        <v>2749972</v>
       </c>
       <c r="N176" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O176" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P176" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>32</v>
-      </c>
-      <c r="R176" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q176"/>
+      <c r="R176"/>
       <c r="S176" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="T176"/>
     </row>
@@ -38367,40 +38363,40 @@
         <v>178</v>
       </c>
       <c r="D177" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E177" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F177" t="n">
         <v>2022</v>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H177" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I177" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J177" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K177" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L177" t="n">
-        <v>301235</v>
+        <v>287833</v>
       </c>
       <c r="M177" t="n">
-        <v>2739900</v>
+        <v>2750282</v>
       </c>
       <c r="N177" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O177" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="P177" t="n">
         <v>0</v>
@@ -38408,7 +38404,7 @@
       <c r="Q177"/>
       <c r="R177"/>
       <c r="S177" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="T177"/>
     </row>
@@ -38421,40 +38417,40 @@
         <v>178</v>
       </c>
       <c r="D178" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E178" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F178" t="n">
         <v>2022</v>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H178" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I178" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J178" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K178" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L178" t="n">
-        <v>301269</v>
+        <v>288002</v>
       </c>
       <c r="M178" t="n">
-        <v>2739689</v>
+        <v>2750112</v>
       </c>
       <c r="N178" t="n">
         <v>10</v>
       </c>
       <c r="O178" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="P178" t="n">
         <v>0</v>
@@ -38462,7 +38458,7 @@
       <c r="Q178"/>
       <c r="R178"/>
       <c r="S178" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="T178"/>
     </row>
@@ -38475,40 +38471,40 @@
         <v>178</v>
       </c>
       <c r="D179" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E179" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F179" t="n">
         <v>2022</v>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H179" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I179" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J179" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K179" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L179" t="n">
-        <v>301104</v>
+        <v>288236</v>
       </c>
       <c r="M179" t="n">
-        <v>2739618</v>
+        <v>2749825</v>
       </c>
       <c r="N179" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
@@ -38516,7 +38512,7 @@
       <c r="Q179"/>
       <c r="R179"/>
       <c r="S179" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="T179"/>
     </row>
@@ -38538,31 +38534,31 @@
         <v>2022</v>
       </c>
       <c r="G180" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H180" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I180" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K180" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
-        <v>301230</v>
+        <v>301235</v>
       </c>
       <c r="M180" t="n">
-        <v>2740571</v>
+        <v>2740565</v>
       </c>
       <c r="N180" t="n">
         <v>9</v>
       </c>
       <c r="O180" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="P180" t="n">
         <v>0</v>
@@ -38592,31 +38588,31 @@
         <v>2022</v>
       </c>
       <c r="G181" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H181" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I181" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J181" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K181" t="s">
         <v>27</v>
       </c>
       <c r="L181" t="n">
-        <v>301253</v>
+        <v>301248</v>
       </c>
       <c r="M181" t="n">
-        <v>2740360</v>
+        <v>2740363</v>
       </c>
       <c r="N181" t="n">
+        <v>10</v>
+      </c>
+      <c r="O181" t="n">
         <v>9</v>
-      </c>
-      <c r="O181" t="n">
-        <v>38</v>
       </c>
       <c r="P181" t="n">
         <v>0</v>
@@ -38646,37 +38642,41 @@
         <v>2022</v>
       </c>
       <c r="G182" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I182" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J182" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K182" t="s">
         <v>29</v>
       </c>
       <c r="L182" t="n">
-        <v>301185</v>
+        <v>301184</v>
       </c>
       <c r="M182" t="n">
-        <v>2740117</v>
+        <v>2740121</v>
       </c>
       <c r="N182" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O182" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="P182" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q182"/>
-      <c r="R182"/>
+        <v>2</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>32</v>
+      </c>
+      <c r="R182" t="s">
+        <v>33</v>
+      </c>
       <c r="S182" t="s">
         <v>26</v>
       </c>
@@ -38700,22 +38700,22 @@
         <v>2022</v>
       </c>
       <c r="G183" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H183" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I183" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J183" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K183" t="s">
         <v>30</v>
       </c>
       <c r="L183" t="n">
-        <v>301239</v>
+        <v>301235</v>
       </c>
       <c r="M183" t="n">
         <v>2739900</v>
@@ -38724,7 +38724,7 @@
         <v>10</v>
       </c>
       <c r="O183" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="P183" t="n">
         <v>0</v>
@@ -38754,31 +38754,31 @@
         <v>2022</v>
       </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H184" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I184" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J184" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K184" t="s">
         <v>31</v>
       </c>
       <c r="L184" t="n">
-        <v>301275</v>
+        <v>301269</v>
       </c>
       <c r="M184" t="n">
-        <v>2739686</v>
+        <v>2739689</v>
       </c>
       <c r="N184" t="n">
         <v>10</v>
       </c>
       <c r="O184" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="P184" t="n">
         <v>0</v>
@@ -38808,31 +38808,31 @@
         <v>2022</v>
       </c>
       <c r="G185" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H185" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I185" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J185" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K185" t="s">
         <v>34</v>
       </c>
       <c r="L185" t="n">
-        <v>301065</v>
+        <v>301104</v>
       </c>
       <c r="M185" t="n">
-        <v>2739616</v>
+        <v>2739618</v>
       </c>
       <c r="N185" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O185" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P185" t="n">
         <v>0</v>
@@ -38843,6 +38843,330 @@
         <v>28</v>
       </c>
       <c r="T185"/>
+    </row>
+    <row r="186">
+      <c r="A186"/>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>178</v>
+      </c>
+      <c r="D186" t="s">
+        <v>224</v>
+      </c>
+      <c r="E186" t="s">
+        <v>225</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G186" t="n">
+        <v>5</v>
+      </c>
+      <c r="H186" t="n">
+        <v>30</v>
+      </c>
+      <c r="I186" t="s">
+        <v>27</v>
+      </c>
+      <c r="J186" t="s">
+        <v>227</v>
+      </c>
+      <c r="K186" t="s">
+        <v>24</v>
+      </c>
+      <c r="L186" t="n">
+        <v>301230</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2740571</v>
+      </c>
+      <c r="N186" t="n">
+        <v>9</v>
+      </c>
+      <c r="O186" t="n">
+        <v>28</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186"/>
+      <c r="R186"/>
+      <c r="S186" t="s">
+        <v>26</v>
+      </c>
+      <c r="T186"/>
+    </row>
+    <row r="187">
+      <c r="A187"/>
+      <c r="B187" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>178</v>
+      </c>
+      <c r="D187" t="s">
+        <v>224</v>
+      </c>
+      <c r="E187" t="s">
+        <v>225</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G187" t="n">
+        <v>5</v>
+      </c>
+      <c r="H187" t="n">
+        <v>30</v>
+      </c>
+      <c r="I187" t="s">
+        <v>27</v>
+      </c>
+      <c r="J187" t="s">
+        <v>227</v>
+      </c>
+      <c r="K187" t="s">
+        <v>27</v>
+      </c>
+      <c r="L187" t="n">
+        <v>301253</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2740360</v>
+      </c>
+      <c r="N187" t="n">
+        <v>9</v>
+      </c>
+      <c r="O187" t="n">
+        <v>38</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187"/>
+      <c r="R187"/>
+      <c r="S187" t="s">
+        <v>26</v>
+      </c>
+      <c r="T187"/>
+    </row>
+    <row r="188">
+      <c r="A188"/>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>178</v>
+      </c>
+      <c r="D188" t="s">
+        <v>224</v>
+      </c>
+      <c r="E188" t="s">
+        <v>225</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G188" t="n">
+        <v>5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>30</v>
+      </c>
+      <c r="I188" t="s">
+        <v>27</v>
+      </c>
+      <c r="J188" t="s">
+        <v>227</v>
+      </c>
+      <c r="K188" t="s">
+        <v>29</v>
+      </c>
+      <c r="L188" t="n">
+        <v>301185</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2740117</v>
+      </c>
+      <c r="N188" t="n">
+        <v>9</v>
+      </c>
+      <c r="O188" t="n">
+        <v>49</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188"/>
+      <c r="R188"/>
+      <c r="S188" t="s">
+        <v>26</v>
+      </c>
+      <c r="T188"/>
+    </row>
+    <row r="189">
+      <c r="A189"/>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>178</v>
+      </c>
+      <c r="D189" t="s">
+        <v>224</v>
+      </c>
+      <c r="E189" t="s">
+        <v>225</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5</v>
+      </c>
+      <c r="H189" t="n">
+        <v>30</v>
+      </c>
+      <c r="I189" t="s">
+        <v>27</v>
+      </c>
+      <c r="J189" t="s">
+        <v>227</v>
+      </c>
+      <c r="K189" t="s">
+        <v>30</v>
+      </c>
+      <c r="L189" t="n">
+        <v>301239</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2739900</v>
+      </c>
+      <c r="N189" t="n">
+        <v>10</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189"/>
+      <c r="R189"/>
+      <c r="S189" t="s">
+        <v>28</v>
+      </c>
+      <c r="T189"/>
+    </row>
+    <row r="190">
+      <c r="A190"/>
+      <c r="B190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" t="s">
+        <v>178</v>
+      </c>
+      <c r="D190" t="s">
+        <v>224</v>
+      </c>
+      <c r="E190" t="s">
+        <v>225</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G190" t="n">
+        <v>5</v>
+      </c>
+      <c r="H190" t="n">
+        <v>30</v>
+      </c>
+      <c r="I190" t="s">
+        <v>27</v>
+      </c>
+      <c r="J190" t="s">
+        <v>227</v>
+      </c>
+      <c r="K190" t="s">
+        <v>31</v>
+      </c>
+      <c r="L190" t="n">
+        <v>301275</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2739686</v>
+      </c>
+      <c r="N190" t="n">
+        <v>10</v>
+      </c>
+      <c r="O190" t="n">
+        <v>11</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190"/>
+      <c r="R190"/>
+      <c r="S190" t="s">
+        <v>28</v>
+      </c>
+      <c r="T190"/>
+    </row>
+    <row r="191">
+      <c r="A191"/>
+      <c r="B191" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" t="s">
+        <v>178</v>
+      </c>
+      <c r="D191" t="s">
+        <v>224</v>
+      </c>
+      <c r="E191" t="s">
+        <v>225</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G191" t="n">
+        <v>5</v>
+      </c>
+      <c r="H191" t="n">
+        <v>30</v>
+      </c>
+      <c r="I191" t="s">
+        <v>27</v>
+      </c>
+      <c r="J191" t="s">
+        <v>227</v>
+      </c>
+      <c r="K191" t="s">
+        <v>34</v>
+      </c>
+      <c r="L191" t="n">
+        <v>301065</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2739616</v>
+      </c>
+      <c r="N191" t="n">
+        <v>10</v>
+      </c>
+      <c r="O191" t="n">
+        <v>23</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191"/>
+      <c r="R191"/>
+      <c r="S191" t="s">
+        <v>28</v>
+      </c>
+      <c r="T191"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
